--- a/Code/Results/Cases/Case_2_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91540089285256</v>
+        <v>16.51415364256055</v>
       </c>
       <c r="C2">
-        <v>11.23292222553253</v>
+        <v>9.866888820131091</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.336142293891177</v>
+        <v>15.61786258095976</v>
       </c>
       <c r="F2">
-        <v>26.38865832056583</v>
+        <v>36.45562086513911</v>
       </c>
       <c r="G2">
-        <v>2.076394215654863</v>
+        <v>3.638166415003166</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.9026400906319</v>
+        <v>23.03879365177308</v>
       </c>
       <c r="J2">
-        <v>4.843846062265531</v>
+        <v>7.492013016042842</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.034002493758281</v>
+        <v>12.99190345555264</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.01029550710798</v>
+        <v>17.538709072854</v>
       </c>
       <c r="O2">
-        <v>15.23715549407486</v>
+        <v>22.89726700555503</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.50389150332081</v>
+        <v>16.04284133325686</v>
       </c>
       <c r="C3">
-        <v>10.75881860580595</v>
+        <v>9.68681919019834</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.276851206812236</v>
+        <v>15.64192260551311</v>
       </c>
       <c r="F3">
-        <v>25.69259128047353</v>
+        <v>36.45947151408759</v>
       </c>
       <c r="G3">
-        <v>2.081633472281256</v>
+        <v>3.640186424805744</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.0059593390255</v>
+        <v>23.13801665184768</v>
       </c>
       <c r="J3">
-        <v>4.83723738311407</v>
+        <v>7.49225289297685</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.743439196491758</v>
+        <v>12.96375519622687</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.13170854376824</v>
+        <v>17.58382268671548</v>
       </c>
       <c r="O3">
-        <v>15.05154407073804</v>
+        <v>22.95399554411834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.58525770211295</v>
+        <v>15.7483014481524</v>
       </c>
       <c r="C4">
-        <v>10.45642700090357</v>
+        <v>9.573450524237179</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.244415248188485</v>
+        <v>15.65867064770506</v>
       </c>
       <c r="F4">
-        <v>25.27825272943484</v>
+        <v>36.47088384310157</v>
       </c>
       <c r="G4">
-        <v>2.084951684437256</v>
+        <v>3.641493045685253</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.08274259842794</v>
+        <v>23.20377204819147</v>
       </c>
       <c r="J4">
-        <v>4.833440582666902</v>
+        <v>7.492554825750665</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.563533515349855</v>
+        <v>12.94823790946514</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.20981631426859</v>
+        <v>17.6133047162144</v>
       </c>
       <c r="O4">
-        <v>14.95192529793287</v>
+        <v>22.99445556302668</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19776790655972</v>
+        <v>15.62715704738986</v>
       </c>
       <c r="C5">
-        <v>10.33045996103439</v>
+        <v>9.526582102406529</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.232187064279533</v>
+        <v>15.66599271063312</v>
       </c>
       <c r="F5">
-        <v>25.11286487969732</v>
+        <v>36.47780975328335</v>
       </c>
       <c r="G5">
-        <v>2.086329942220832</v>
+        <v>3.642042235250487</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.11722818295144</v>
+        <v>23.23178109125459</v>
       </c>
       <c r="J5">
-        <v>4.831959975884351</v>
+        <v>7.492716935820981</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.489947626697445</v>
+        <v>12.94236288382812</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.24252951396152</v>
+        <v>17.62576781088191</v>
       </c>
       <c r="O5">
-        <v>14.91485939592963</v>
+        <v>23.01235468317049</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1326298378314</v>
+        <v>15.60697909178788</v>
       </c>
       <c r="C6">
-        <v>10.30938095136707</v>
+        <v>9.518760254658893</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.230216090244085</v>
+        <v>15.66723856949501</v>
       </c>
       <c r="F6">
-        <v>25.08561628234807</v>
+        <v>36.47909719377536</v>
       </c>
       <c r="G6">
-        <v>2.086560391570989</v>
+        <v>3.642134439813991</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.1231429439202</v>
+        <v>23.23650519035397</v>
       </c>
       <c r="J6">
-        <v>4.831718173576702</v>
+        <v>7.49274621913306</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.477715449634651</v>
+        <v>12.94141454332281</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.24801457664893</v>
+        <v>17.62786443644745</v>
       </c>
       <c r="O6">
-        <v>14.90891530117051</v>
+        <v>23.01541193672555</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58008517505863</v>
+        <v>15.74667193069574</v>
       </c>
       <c r="C7">
-        <v>10.45473911691127</v>
+        <v>9.572821104011393</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.24424633924224</v>
+        <v>15.65876738230043</v>
       </c>
       <c r="F7">
-        <v>25.27600801838513</v>
+        <v>36.47096803667094</v>
       </c>
       <c r="G7">
-        <v>2.084970165827695</v>
+        <v>3.641500384435348</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.0831949504203</v>
+        <v>23.20414487828838</v>
       </c>
       <c r="J7">
-        <v>4.833420343681398</v>
+        <v>7.492556853592555</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.562542072236438</v>
+        <v>12.94815685576014</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.21025393219193</v>
+        <v>17.61347097909761</v>
       </c>
       <c r="O7">
-        <v>14.95141123477163</v>
+        <v>22.99469124791321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43945271919684</v>
+        <v>16.35281800323211</v>
       </c>
       <c r="C8">
-        <v>11.07184898488203</v>
+        <v>9.805403912711016</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.314870378161585</v>
+        <v>15.62574882714441</v>
       </c>
       <c r="F8">
-        <v>26.14605365483088</v>
+        <v>36.45507110607056</v>
       </c>
       <c r="G8">
-        <v>2.078180052800729</v>
+        <v>3.638849179966228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.93539689741674</v>
+        <v>23.07200171499499</v>
       </c>
       <c r="J8">
-        <v>4.841513854702533</v>
+        <v>7.492063737943409</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.934187302176527</v>
+        <v>12.98183413465692</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.0514126028402</v>
+        <v>17.55389485750706</v>
       </c>
       <c r="O8">
-        <v>15.17013531019104</v>
+        <v>22.91565651076369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67672777060069</v>
+        <v>17.49334888618464</v>
       </c>
       <c r="C9">
-        <v>12.18886935573212</v>
+        <v>10.23775816491743</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.485167456329133</v>
+        <v>15.57665054265263</v>
       </c>
       <c r="F9">
-        <v>27.94788881079682</v>
+        <v>36.49562976478927</v>
       </c>
       <c r="G9">
-        <v>2.065640177718082</v>
+        <v>3.634174050702676</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.7588883048353</v>
+        <v>22.85129381913128</v>
       </c>
       <c r="J9">
-        <v>4.859407604750825</v>
+        <v>7.492315964944621</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.646938433889622</v>
+        <v>13.06168308740564</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.76875451656387</v>
+        <v>17.45117034936183</v>
       </c>
       <c r="O9">
-        <v>15.71582064396824</v>
+        <v>22.8054948212595</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.81059190494303</v>
+        <v>18.29314344867786</v>
       </c>
       <c r="C10">
-        <v>12.94904080284716</v>
+        <v>10.5390732704641</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.630024529791473</v>
+        <v>15.55009056583669</v>
       </c>
       <c r="F10">
-        <v>29.31983569626654</v>
+        <v>36.5689964915099</v>
       </c>
       <c r="G10">
-        <v>2.056858354900217</v>
+        <v>3.631055245434909</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.70885069441704</v>
+        <v>22.71267961271665</v>
       </c>
       <c r="J10">
-        <v>4.873715241762891</v>
+        <v>7.493234304374756</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.15588617560662</v>
+        <v>13.1284760189056</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.57958626077116</v>
+        <v>17.38424775923303</v>
       </c>
       <c r="O10">
-        <v>16.19117981218719</v>
+        <v>22.75209332098017</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.72929131313897</v>
+        <v>18.64709254617911</v>
       </c>
       <c r="C11">
-        <v>13.28119506421169</v>
+        <v>10.67224282206007</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.700263521428589</v>
+        <v>15.54006631842809</v>
       </c>
       <c r="F11">
-        <v>29.95246272753723</v>
+        <v>36.61176904498685</v>
       </c>
       <c r="G11">
-        <v>2.05294711667239</v>
+        <v>3.629704325584104</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.70573943431573</v>
+        <v>22.65475708019883</v>
       </c>
       <c r="J11">
-        <v>4.880458376535407</v>
+        <v>7.493809063753989</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.38336774372172</v>
+        <v>13.16055892101622</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.49778879127354</v>
+        <v>17.35564919860716</v>
       </c>
       <c r="O11">
-        <v>16.42410184055136</v>
+        <v>22.73381535583992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.06978789631379</v>
+        <v>18.77958499996817</v>
       </c>
       <c r="C12">
-        <v>13.40498022764276</v>
+        <v>10.72208209889695</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.727488441044912</v>
+        <v>15.53656565983487</v>
       </c>
       <c r="F12">
-        <v>30.19310354772612</v>
+        <v>36.6293093126443</v>
       </c>
       <c r="G12">
-        <v>2.051477201571035</v>
+        <v>3.629202468656877</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.70758562672555</v>
+        <v>22.63356375453755</v>
       </c>
       <c r="J12">
-        <v>4.883043825424486</v>
+        <v>7.494049094864945</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.46886866759061</v>
+        <v>13.17294588725036</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.4674500365056</v>
+        <v>17.34508422596943</v>
       </c>
       <c r="O12">
-        <v>16.51473175562371</v>
+        <v>22.72776121161712</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.99678339927966</v>
+        <v>18.75112066541559</v>
       </c>
       <c r="C13">
-        <v>13.37840997524526</v>
+        <v>10.71137495225319</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.721597151295104</v>
+        <v>15.53730646614723</v>
       </c>
       <c r="F13">
-        <v>30.14123139414886</v>
+        <v>36.62547210712992</v>
       </c>
       <c r="G13">
-        <v>2.051793290640653</v>
+        <v>3.62931012156393</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.70705032463599</v>
+        <v>22.6380951352926</v>
       </c>
       <c r="J13">
-        <v>4.882485610559651</v>
+        <v>7.493996407530804</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.45048390411623</v>
+        <v>13.17026765750198</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.4739553209955</v>
+        <v>17.34734781952555</v>
       </c>
       <c r="O13">
-        <v>16.49510461354449</v>
+        <v>22.72902647134512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.75745189013916</v>
+        <v>18.65802429405208</v>
       </c>
       <c r="C14">
-        <v>13.29141906006695</v>
+        <v>10.67635509222517</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.702490755201062</v>
+        <v>15.53977240258469</v>
       </c>
       <c r="F14">
-        <v>29.97223954518937</v>
+        <v>36.61318522496284</v>
       </c>
       <c r="G14">
-        <v>2.052825966726515</v>
+        <v>3.629662843243057</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.70582956459394</v>
+        <v>22.65299863412051</v>
       </c>
       <c r="J14">
-        <v>4.880670452875322</v>
+        <v>7.493828363805526</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.39041512402546</v>
+        <v>13.16157327440543</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.49527990528184</v>
+        <v>17.35477471074251</v>
       </c>
       <c r="O14">
-        <v>16.43150922131159</v>
+        <v>22.73329988290649</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.60989391234749</v>
+        <v>18.60079613101226</v>
       </c>
       <c r="C15">
-        <v>13.23787411632549</v>
+        <v>10.65482688449609</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.690869244391212</v>
+        <v>15.54132129771235</v>
       </c>
       <c r="F15">
-        <v>29.86886361180376</v>
+        <v>36.60583381598278</v>
       </c>
       <c r="G15">
-        <v>2.053459941372105</v>
+        <v>3.629880158181805</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.70548160266868</v>
+        <v>22.66222398888688</v>
       </c>
       <c r="J15">
-        <v>4.879562724992029</v>
+        <v>7.493728341192902</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.35353609723131</v>
+        <v>13.15627849743524</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.50842544283753</v>
+        <v>17.35935834774167</v>
       </c>
       <c r="O15">
-        <v>16.3928720995424</v>
+        <v>22.7360304868162</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.74951331846357</v>
+        <v>18.26980272093626</v>
       </c>
       <c r="C16">
-        <v>12.92705612454095</v>
+        <v>10.53028938424071</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.625521858107572</v>
+        <v>15.55078703359552</v>
       </c>
       <c r="F16">
-        <v>29.27865053545964</v>
+        <v>36.56638964754242</v>
       </c>
       <c r="G16">
-        <v>2.057115576053038</v>
+        <v>3.631144892210602</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.70946637531985</v>
+        <v>22.71656850014661</v>
       </c>
       <c r="J16">
-        <v>4.873279134983965</v>
+        <v>7.493199885194292</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.14093303888763</v>
+        <v>13.12641296497064</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.58501956151784</v>
+        <v>17.38615381338412</v>
       </c>
       <c r="O16">
-        <v>16.17629603283408</v>
+        <v>22.75340907612594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.20843626531257</v>
+        <v>18.06412933433905</v>
       </c>
       <c r="C17">
-        <v>12.73285731279539</v>
+        <v>10.4528700108155</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.586547593740292</v>
+        <v>15.55712062979472</v>
       </c>
       <c r="F17">
-        <v>28.91864623233143</v>
+        <v>36.5445935749839</v>
       </c>
       <c r="G17">
-        <v>2.059379033190363</v>
+        <v>3.631938106647588</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.71708454771329</v>
+        <v>22.75122371777677</v>
       </c>
       <c r="J17">
-        <v>4.869483225237888</v>
+        <v>7.492915768729429</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.00942709850803</v>
+        <v>13.10852200058221</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.63311396396303</v>
+        <v>17.40306403841913</v>
       </c>
       <c r="O17">
-        <v>16.04772789485342</v>
+        <v>22.76561263353738</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.8923228541388</v>
+        <v>17.94490772098021</v>
       </c>
       <c r="C18">
-        <v>12.61987554703508</v>
+        <v>10.40797490512059</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.564539293137544</v>
+        <v>15.5609572986598</v>
       </c>
       <c r="F18">
-        <v>28.71239105602634</v>
+        <v>36.53294218514274</v>
       </c>
       <c r="G18">
-        <v>2.060688841803545</v>
+        <v>3.632400730922673</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.72330391375801</v>
+        <v>22.77163954909231</v>
       </c>
       <c r="J18">
-        <v>4.867322106845355</v>
+        <v>7.492767141970807</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.933410993318995</v>
+        <v>13.09839185730951</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.66117558804537</v>
+        <v>17.41296403466259</v>
       </c>
       <c r="O18">
-        <v>15.97534747382108</v>
+        <v>22.77319780528754</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.78444816945246</v>
+        <v>17.90438651567322</v>
       </c>
       <c r="C19">
-        <v>12.581402499826</v>
+        <v>10.3927123058894</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.557157764236694</v>
+        <v>15.56228962432434</v>
       </c>
       <c r="F19">
-        <v>28.64270045367804</v>
+        <v>36.52914947114613</v>
       </c>
       <c r="G19">
-        <v>2.061133706927853</v>
+        <v>3.632558466228902</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.72571928061632</v>
+        <v>22.77863489152176</v>
       </c>
       <c r="J19">
-        <v>4.866594250978646</v>
+        <v>7.492719365519525</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.907610418651631</v>
+        <v>13.09498968032345</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.67074460976421</v>
+        <v>17.41634585219148</v>
       </c>
       <c r="O19">
-        <v>15.95110913557217</v>
+        <v>22.77586314573237</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.26654139704456</v>
+        <v>18.08612012193037</v>
       </c>
       <c r="C20">
-        <v>12.75366322975694</v>
+        <v>10.46114947703935</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.590654155702818</v>
+        <v>15.55642635950719</v>
       </c>
       <c r="F20">
-        <v>28.95688661930188</v>
+        <v>36.54682225023755</v>
       </c>
       <c r="G20">
-        <v>2.059137269737221</v>
+        <v>3.631853006801531</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.71608196485673</v>
+        <v>22.74748459737148</v>
       </c>
       <c r="J20">
-        <v>4.869885022069799</v>
+        <v>7.492944484153773</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.02346565179187</v>
+        <v>13.11040998260455</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.62795277226103</v>
+        <v>17.40124594510898</v>
       </c>
       <c r="O20">
-        <v>16.06125162434676</v>
+        <v>22.76425494533381</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.82794937410687</v>
+        <v>18.68541165420111</v>
       </c>
       <c r="C21">
-        <v>13.31702472986666</v>
+        <v>10.68665747959901</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.708085735307922</v>
+        <v>15.53904008807175</v>
       </c>
       <c r="F21">
-        <v>30.02184834497331</v>
+        <v>36.61675779748597</v>
       </c>
       <c r="G21">
-        <v>2.052522348153505</v>
+        <v>3.629558977270037</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.70610445886995</v>
+        <v>22.64860099379925</v>
       </c>
       <c r="J21">
-        <v>4.88120275582299</v>
+        <v>7.493877116433039</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.40807662393243</v>
+        <v>13.16412062191792</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.48899888573041</v>
+        <v>17.35258607411734</v>
       </c>
       <c r="O21">
-        <v>16.45012264454019</v>
+        <v>22.73202112219638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.80535704816456</v>
+        <v>19.06805754316905</v>
       </c>
       <c r="C22">
-        <v>13.67358119960029</v>
+        <v>10.83059418641484</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.788489116186536</v>
+        <v>15.52939809335288</v>
       </c>
       <c r="F22">
-        <v>30.72409612431284</v>
+        <v>36.67028926830688</v>
       </c>
       <c r="G22">
-        <v>2.048263881089253</v>
+        <v>3.628116254657888</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.71730512858831</v>
+        <v>22.58829324015215</v>
       </c>
       <c r="J22">
-        <v>4.888784960558664</v>
+        <v>7.49461701470561</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.6556818985513</v>
+        <v>13.20060696185242</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.4019058958889</v>
+        <v>17.32232653499369</v>
       </c>
       <c r="O22">
-        <v>16.71843141938677</v>
+        <v>22.71601070619065</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.2876081343879</v>
+        <v>18.86469453274717</v>
       </c>
       <c r="C23">
-        <v>13.48435252945436</v>
+        <v>10.75409662507764</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.745241208872303</v>
+        <v>15.53438696495085</v>
       </c>
       <c r="F23">
-        <v>30.34876619114229</v>
+        <v>36.64100564194698</v>
       </c>
       <c r="G23">
-        <v>2.050531072913382</v>
+        <v>3.628881103622076</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.70963954038324</v>
+        <v>22.62008467661317</v>
       </c>
       <c r="J23">
-        <v>4.884721853094324</v>
+        <v>7.494210253000539</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.52389194580953</v>
+        <v>13.1810091136971</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.448039815613</v>
+        <v>17.33833567708932</v>
       </c>
       <c r="O23">
-        <v>16.5739260381449</v>
+        <v>22.7240924292566</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.2402877748807</v>
+        <v>18.07618112153478</v>
       </c>
       <c r="C24">
-        <v>12.74426102819683</v>
+        <v>10.45740752953058</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.588796337918767</v>
+        <v>15.55673963041415</v>
       </c>
       <c r="F24">
-        <v>28.9395958984999</v>
+        <v>36.54581192608401</v>
       </c>
       <c r="G24">
-        <v>2.059246544402797</v>
+        <v>3.631891459895702</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.7165295177173</v>
+        <v>22.74917352105127</v>
       </c>
       <c r="J24">
-        <v>4.869703303556089</v>
+        <v>7.492931456053562</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.01712009918147</v>
+        <v>13.10955594074614</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.63028486705414</v>
+        <v>17.40206735032041</v>
       </c>
       <c r="O24">
-        <v>16.05513276694469</v>
+        <v>22.76486698336172</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.8442556035796</v>
+        <v>17.190916062557</v>
       </c>
       <c r="C25">
-        <v>11.89709175171671</v>
+        <v>10.12353550907505</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.435651845356647</v>
+        <v>15.58826015892516</v>
       </c>
       <c r="F25">
-        <v>27.4512804478811</v>
+        <v>36.4769890592993</v>
       </c>
       <c r="G25">
-        <v>2.068953668486677</v>
+        <v>3.635383060981254</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.79343585585018</v>
+        <v>22.9068757186085</v>
       </c>
       <c r="J25">
-        <v>4.854357323646166</v>
+        <v>7.49211825643911</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.456381684791378</v>
+        <v>13.03863229119492</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.84204658963667</v>
+        <v>17.47745526605713</v>
       </c>
       <c r="O25">
-        <v>15.55532175895047</v>
+        <v>22.8304747346705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.51415364256055</v>
+        <v>20.91540089285263</v>
       </c>
       <c r="C2">
-        <v>9.866888820131091</v>
+        <v>11.23292222553233</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.61786258095976</v>
+        <v>9.336142293891177</v>
       </c>
       <c r="F2">
-        <v>36.45562086513911</v>
+        <v>26.38865832056564</v>
       </c>
       <c r="G2">
-        <v>3.638166415003166</v>
+        <v>2.076394215654729</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.03879365177308</v>
+        <v>13.90264009063168</v>
       </c>
       <c r="J2">
-        <v>7.492013016042842</v>
+        <v>4.843846062265529</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.99190345555264</v>
+        <v>9.03400249375828</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.538709072854</v>
+        <v>12.01029550710784</v>
       </c>
       <c r="O2">
-        <v>22.89726700555503</v>
+        <v>15.23715549407471</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04284133325686</v>
+        <v>19.50389150332084</v>
       </c>
       <c r="C3">
-        <v>9.68681919019834</v>
+        <v>10.75881860580585</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64192260551311</v>
+        <v>9.276851206812184</v>
       </c>
       <c r="F3">
-        <v>36.45947151408759</v>
+        <v>25.69259128047357</v>
       </c>
       <c r="G3">
-        <v>3.640186424805744</v>
+        <v>2.081633472281121</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.13801665184768</v>
+        <v>14.00595933902556</v>
       </c>
       <c r="J3">
-        <v>7.49225289297685</v>
+        <v>4.837237383113973</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.96375519622687</v>
+        <v>8.743439196491719</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.58382268671548</v>
+        <v>12.13170854376827</v>
       </c>
       <c r="O3">
-        <v>22.95399554411834</v>
+        <v>15.05154407073809</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.7483014481524</v>
+        <v>18.58525770211296</v>
       </c>
       <c r="C4">
-        <v>9.573450524237179</v>
+        <v>10.45642700090336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.65867064770506</v>
+        <v>9.24441524818849</v>
       </c>
       <c r="F4">
-        <v>36.47088384310157</v>
+        <v>25.27825272943492</v>
       </c>
       <c r="G4">
-        <v>3.641493045685253</v>
+        <v>2.084951684437257</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.20377204819147</v>
+        <v>14.08274259842802</v>
       </c>
       <c r="J4">
-        <v>7.492554825750665</v>
+        <v>4.833440582666934</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.94823790946514</v>
+        <v>8.563533515349885</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.6133047162144</v>
+        <v>12.20981631426869</v>
       </c>
       <c r="O4">
-        <v>22.99445556302668</v>
+        <v>14.95192529793296</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.62715704738986</v>
+        <v>18.19776790655971</v>
       </c>
       <c r="C5">
-        <v>9.526582102406529</v>
+        <v>10.33045996103438</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.66599271063312</v>
+        <v>9.232187064279639</v>
       </c>
       <c r="F5">
-        <v>36.47780975328335</v>
+        <v>25.11286487969736</v>
       </c>
       <c r="G5">
-        <v>3.642042235250487</v>
+        <v>2.086329942220698</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.23178109125459</v>
+        <v>14.11722818295147</v>
       </c>
       <c r="J5">
-        <v>7.492716935820981</v>
+        <v>4.831959975884419</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.94236288382812</v>
+        <v>8.489947626697514</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.62576781088191</v>
+        <v>12.24252951396152</v>
       </c>
       <c r="O5">
-        <v>23.01235468317049</v>
+        <v>14.91485939592966</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.60697909178788</v>
+        <v>18.13262983783138</v>
       </c>
       <c r="C6">
-        <v>9.518760254658893</v>
+        <v>10.30938095136706</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.66723856949501</v>
+        <v>9.230216090244138</v>
       </c>
       <c r="F6">
-        <v>36.47909719377536</v>
+        <v>25.08561628234821</v>
       </c>
       <c r="G6">
-        <v>3.642134439813991</v>
+        <v>2.08656039157099</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.23650519035397</v>
+        <v>14.12314294392024</v>
       </c>
       <c r="J6">
-        <v>7.49274621913306</v>
+        <v>4.831718173576636</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.94141454332281</v>
+        <v>8.477715449634672</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.62786443644745</v>
+        <v>12.24801457664893</v>
       </c>
       <c r="O6">
-        <v>23.01541193672555</v>
+        <v>14.90891530117058</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.74667193069574</v>
+        <v>18.58008517505865</v>
       </c>
       <c r="C7">
-        <v>9.572821104011393</v>
+        <v>10.45473911691135</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.65876738230043</v>
+        <v>9.244246339242185</v>
       </c>
       <c r="F7">
-        <v>36.47096803667094</v>
+        <v>25.27600801838524</v>
       </c>
       <c r="G7">
-        <v>3.641500384435348</v>
+        <v>2.084970165827964</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.20414487828838</v>
+        <v>14.08319495042037</v>
       </c>
       <c r="J7">
-        <v>7.492556853592555</v>
+        <v>4.833420343681332</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.94815685576014</v>
+        <v>8.562542072236395</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.61347097909761</v>
+        <v>12.21025393219192</v>
       </c>
       <c r="O7">
-        <v>22.99469124791321</v>
+        <v>14.95141123477167</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.35281800323211</v>
+        <v>20.43945271919691</v>
       </c>
       <c r="C8">
-        <v>9.805403912711016</v>
+        <v>11.07184898488191</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.62574882714441</v>
+        <v>9.314870378161572</v>
       </c>
       <c r="F8">
-        <v>36.45507110607056</v>
+        <v>26.14605365483088</v>
       </c>
       <c r="G8">
-        <v>3.638849179966228</v>
+        <v>2.078180052800596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.07200171499499</v>
+        <v>13.93539689741668</v>
       </c>
       <c r="J8">
-        <v>7.492063737943409</v>
+        <v>4.841513854702463</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.98183413465692</v>
+        <v>8.934187302176507</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.55389485750706</v>
+        <v>12.0514126028402</v>
       </c>
       <c r="O8">
-        <v>22.91565651076369</v>
+        <v>15.17013531019104</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.49334888618464</v>
+        <v>23.67672777060072</v>
       </c>
       <c r="C9">
-        <v>10.23775816491743</v>
+        <v>12.18886935573212</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.57665054265263</v>
+        <v>9.485167456329071</v>
       </c>
       <c r="F9">
-        <v>36.49562976478927</v>
+        <v>27.94788881079669</v>
       </c>
       <c r="G9">
-        <v>3.634174050702676</v>
+        <v>2.065640177718215</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.85129381913128</v>
+        <v>13.75888830483521</v>
       </c>
       <c r="J9">
-        <v>7.492315964944621</v>
+        <v>4.859407604750826</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.06168308740564</v>
+        <v>9.646938433889602</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.45117034936183</v>
+        <v>11.76875451656387</v>
       </c>
       <c r="O9">
-        <v>22.8054948212595</v>
+        <v>15.71582064396816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.29314344867786</v>
+        <v>25.81059190494304</v>
       </c>
       <c r="C10">
-        <v>10.5390732704641</v>
+        <v>12.94904080284724</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.55009056583669</v>
+        <v>9.630024529791511</v>
       </c>
       <c r="F10">
-        <v>36.5689964915099</v>
+        <v>29.31983569626652</v>
       </c>
       <c r="G10">
-        <v>3.631055245434909</v>
+        <v>2.056858354900485</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.71267961271665</v>
+        <v>13.70885069441692</v>
       </c>
       <c r="J10">
-        <v>7.493234304374756</v>
+        <v>4.873715241762822</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.1284760189056</v>
+        <v>10.15588617560661</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.38424775923303</v>
+        <v>11.57958626077106</v>
       </c>
       <c r="O10">
-        <v>22.75209332098017</v>
+        <v>16.1911798121871</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.64709254617911</v>
+        <v>26.72929131313891</v>
       </c>
       <c r="C11">
-        <v>10.67224282206007</v>
+        <v>13.28119506421201</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.54006631842809</v>
+        <v>9.700263521428596</v>
       </c>
       <c r="F11">
-        <v>36.61176904498685</v>
+        <v>29.9524627275373</v>
       </c>
       <c r="G11">
-        <v>3.629704325584104</v>
+        <v>2.052947116672523</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.65475708019883</v>
+        <v>13.70573943431587</v>
       </c>
       <c r="J11">
-        <v>7.493809063753989</v>
+        <v>4.880458376535432</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.16055892101622</v>
+        <v>10.38336774372165</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.35564919860716</v>
+        <v>11.49778879127359</v>
       </c>
       <c r="O11">
-        <v>22.73381535583992</v>
+        <v>16.42410184055146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.77958499996817</v>
+        <v>27.06978789631384</v>
       </c>
       <c r="C12">
-        <v>10.72208209889695</v>
+        <v>13.40498022764269</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.53656565983487</v>
+        <v>9.727488441045057</v>
       </c>
       <c r="F12">
-        <v>36.6293093126443</v>
+        <v>30.19310354772616</v>
       </c>
       <c r="G12">
-        <v>3.629202468656877</v>
+        <v>2.051477201571303</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.63356375453755</v>
+        <v>13.70758562672548</v>
       </c>
       <c r="J12">
-        <v>7.494049094864945</v>
+        <v>4.883043825424419</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.17294588725036</v>
+        <v>10.46886866759067</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.34508422596943</v>
+        <v>11.46745003650553</v>
       </c>
       <c r="O12">
-        <v>22.72776121161712</v>
+        <v>16.51473175562367</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.75112066541559</v>
+        <v>26.99678339927961</v>
       </c>
       <c r="C13">
-        <v>10.71137495225319</v>
+        <v>13.37840997524541</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.53730646614723</v>
+        <v>9.72159715129502</v>
       </c>
       <c r="F13">
-        <v>36.62547210712992</v>
+        <v>30.14123139414891</v>
       </c>
       <c r="G13">
-        <v>3.62931012156393</v>
+        <v>2.05179329064052</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.6380951352926</v>
+        <v>13.7070503246361</v>
       </c>
       <c r="J13">
-        <v>7.493996407530804</v>
+        <v>4.882485610559653</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.17026765750198</v>
+        <v>10.45048390411619</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.34734781952555</v>
+        <v>11.47395532099552</v>
       </c>
       <c r="O13">
-        <v>22.72902647134512</v>
+        <v>16.49510461354457</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.65802429405208</v>
+        <v>26.75745189013923</v>
       </c>
       <c r="C14">
-        <v>10.67635509222517</v>
+        <v>13.29141906006687</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.53977240258469</v>
+        <v>9.702490755201028</v>
       </c>
       <c r="F14">
-        <v>36.61318522496284</v>
+        <v>29.97223954518934</v>
       </c>
       <c r="G14">
-        <v>3.629662843243057</v>
+        <v>2.052825966726516</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.65299863412051</v>
+        <v>13.70582956459389</v>
       </c>
       <c r="J14">
-        <v>7.493828363805526</v>
+        <v>4.880670452875387</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.16157327440543</v>
+        <v>10.39041512402551</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.35477471074251</v>
+        <v>11.49527990528181</v>
       </c>
       <c r="O14">
-        <v>22.73329988290649</v>
+        <v>16.43150922131158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.60079613101226</v>
+        <v>26.60989391234748</v>
       </c>
       <c r="C15">
-        <v>10.65482688449609</v>
+        <v>13.23787411632549</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.54132129771235</v>
+        <v>9.690869244391195</v>
       </c>
       <c r="F15">
-        <v>36.60583381598278</v>
+        <v>29.86886361180385</v>
       </c>
       <c r="G15">
-        <v>3.629880158181805</v>
+        <v>2.05345994137197</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.66222398888688</v>
+        <v>13.70548160266887</v>
       </c>
       <c r="J15">
-        <v>7.493728341192902</v>
+        <v>4.879562724991991</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.15627849743524</v>
+        <v>10.35353609723129</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.35935834774167</v>
+        <v>11.50842544283758</v>
       </c>
       <c r="O15">
-        <v>22.7360304868162</v>
+        <v>16.39287209954253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.26980272093626</v>
+        <v>25.74951331846354</v>
       </c>
       <c r="C16">
-        <v>10.53028938424071</v>
+        <v>12.92705612454112</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.55078703359552</v>
+        <v>9.625521858107614</v>
       </c>
       <c r="F16">
-        <v>36.56638964754242</v>
+        <v>29.27865053545966</v>
       </c>
       <c r="G16">
-        <v>3.631144892210602</v>
+        <v>2.057115576053039</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.71656850014661</v>
+        <v>13.70946637531992</v>
       </c>
       <c r="J16">
-        <v>7.493199885194292</v>
+        <v>4.873279134984032</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.12641296497064</v>
+        <v>10.14093303888765</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.38615381338412</v>
+        <v>11.5850195615179</v>
       </c>
       <c r="O16">
-        <v>22.75340907612594</v>
+        <v>16.17629603283411</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.06412933433905</v>
+        <v>25.2084362653126</v>
       </c>
       <c r="C17">
-        <v>10.4528700108155</v>
+        <v>12.7328573127954</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.55712062979472</v>
+        <v>9.586547593740329</v>
       </c>
       <c r="F17">
-        <v>36.5445935749839</v>
+        <v>28.91864623233139</v>
       </c>
       <c r="G17">
-        <v>3.631938106647588</v>
+        <v>2.05937903319063</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.75122371777677</v>
+        <v>13.71708454771326</v>
       </c>
       <c r="J17">
-        <v>7.492915768729429</v>
+        <v>4.869483225237856</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.10852200058221</v>
+        <v>10.00942709850803</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.40306403841913</v>
+        <v>11.63311396396304</v>
       </c>
       <c r="O17">
-        <v>22.76561263353738</v>
+        <v>16.0477278948534</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.94490772098021</v>
+        <v>24.89232285413881</v>
       </c>
       <c r="C18">
-        <v>10.40797490512059</v>
+        <v>12.61987554703497</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.5609572986598</v>
+        <v>9.564539293137647</v>
       </c>
       <c r="F18">
-        <v>36.53294218514274</v>
+        <v>28.71239105602642</v>
       </c>
       <c r="G18">
-        <v>3.632400730922673</v>
+        <v>2.060688841803278</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.77163954909231</v>
+        <v>13.72330391375808</v>
       </c>
       <c r="J18">
-        <v>7.492767141970807</v>
+        <v>4.867322106845323</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.09839185730951</v>
+        <v>9.93341099331902</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.41296403466259</v>
+        <v>11.66117558804547</v>
       </c>
       <c r="O18">
-        <v>22.77319780528754</v>
+        <v>15.97534747382111</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.90438651567322</v>
+        <v>24.78444816945253</v>
       </c>
       <c r="C19">
-        <v>10.3927123058894</v>
+        <v>12.58140249982591</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.56228962432434</v>
+        <v>9.557157764236607</v>
       </c>
       <c r="F19">
-        <v>36.52914947114613</v>
+        <v>28.642700453678</v>
       </c>
       <c r="G19">
-        <v>3.632558466228902</v>
+        <v>2.061133706927986</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.77863489152176</v>
+        <v>13.72571928061627</v>
       </c>
       <c r="J19">
-        <v>7.492719365519525</v>
+        <v>4.866594250978611</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.09498968032345</v>
+        <v>9.907610418651579</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.41634585219148</v>
+        <v>11.6707446097642</v>
       </c>
       <c r="O19">
-        <v>22.77586314573237</v>
+        <v>15.95110913557215</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.08612012193037</v>
+        <v>25.26654139704456</v>
       </c>
       <c r="C20">
-        <v>10.46114947703935</v>
+        <v>12.75366322975701</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.55642635950719</v>
+        <v>9.590654155702813</v>
       </c>
       <c r="F20">
-        <v>36.54682225023755</v>
+        <v>28.95688661930191</v>
       </c>
       <c r="G20">
-        <v>3.631853006801531</v>
+        <v>2.059137269737355</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.74748459737148</v>
+        <v>13.71608196485677</v>
       </c>
       <c r="J20">
-        <v>7.492944484153773</v>
+        <v>4.869885022069771</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.11040998260455</v>
+        <v>10.02346565179185</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.40124594510898</v>
+        <v>11.62795277226103</v>
       </c>
       <c r="O20">
-        <v>22.76425494533381</v>
+        <v>16.06125162434678</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.68541165420111</v>
+        <v>26.82794937410694</v>
       </c>
       <c r="C21">
-        <v>10.68665747959901</v>
+        <v>13.31702472986677</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.53904008807175</v>
+        <v>9.708085735307966</v>
       </c>
       <c r="F21">
-        <v>36.61675779748597</v>
+        <v>30.0218483449733</v>
       </c>
       <c r="G21">
-        <v>3.629558977270037</v>
+        <v>2.05252234815364</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.64860099379925</v>
+        <v>13.70610445886984</v>
       </c>
       <c r="J21">
-        <v>7.493877116433039</v>
+        <v>4.881202755822958</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.16412062191792</v>
+        <v>10.40807662393243</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.35258607411734</v>
+        <v>11.48899888573034</v>
       </c>
       <c r="O21">
-        <v>22.73202112219638</v>
+        <v>16.45012264454011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.06805754316905</v>
+        <v>27.8053570481646</v>
       </c>
       <c r="C22">
-        <v>10.83059418641484</v>
+        <v>13.67358119960029</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.52939809335288</v>
+        <v>9.788489116186534</v>
       </c>
       <c r="F22">
-        <v>36.67028926830688</v>
+        <v>30.72409612431284</v>
       </c>
       <c r="G22">
-        <v>3.628116254657888</v>
+        <v>2.048263881089254</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.58829324015215</v>
+        <v>13.71730512858828</v>
       </c>
       <c r="J22">
-        <v>7.49461701470561</v>
+        <v>4.888784960558632</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.20060696185242</v>
+        <v>10.65568189855131</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.32232653499369</v>
+        <v>11.40190589588889</v>
       </c>
       <c r="O22">
-        <v>22.71601070619065</v>
+        <v>16.71843141938676</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86469453274717</v>
+        <v>27.28760813438786</v>
       </c>
       <c r="C23">
-        <v>10.75409662507764</v>
+        <v>13.48435252945452</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.53438696495085</v>
+        <v>9.745241208872384</v>
       </c>
       <c r="F23">
-        <v>36.64100564194698</v>
+        <v>30.34876619114237</v>
       </c>
       <c r="G23">
-        <v>3.628881103622076</v>
+        <v>2.050531072913384</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.62008467661317</v>
+        <v>13.70963954038343</v>
       </c>
       <c r="J23">
-        <v>7.494210253000539</v>
+        <v>4.884721853094486</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.1810091136971</v>
+        <v>10.52389194580952</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.33833567708932</v>
+        <v>11.44803981561305</v>
       </c>
       <c r="O23">
-        <v>22.7240924292566</v>
+        <v>16.57392603814499</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.07618112153478</v>
+        <v>25.24028777488069</v>
       </c>
       <c r="C24">
-        <v>10.45740752953058</v>
+        <v>12.74426102819683</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.55673963041415</v>
+        <v>9.588796337918817</v>
       </c>
       <c r="F24">
-        <v>36.54581192608401</v>
+        <v>28.93959589849989</v>
       </c>
       <c r="G24">
-        <v>3.631891459895702</v>
+        <v>2.059246544402797</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.74917352105127</v>
+        <v>13.71652951771725</v>
       </c>
       <c r="J24">
-        <v>7.492931456053562</v>
+        <v>4.869703303556157</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.10955594074614</v>
+        <v>10.0171200991815</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.40206735032041</v>
+        <v>11.63028486705411</v>
       </c>
       <c r="O24">
-        <v>22.76486698336172</v>
+        <v>16.05513276694466</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.190916062557</v>
+        <v>22.84425560357958</v>
       </c>
       <c r="C25">
-        <v>10.12353550907505</v>
+        <v>11.8970917517168</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.58826015892516</v>
+        <v>9.435651845356533</v>
       </c>
       <c r="F25">
-        <v>36.4769890592993</v>
+        <v>27.45128044788108</v>
       </c>
       <c r="G25">
-        <v>3.635383060981254</v>
+        <v>2.068953668486541</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.9068757186085</v>
+        <v>13.79343585585021</v>
       </c>
       <c r="J25">
-        <v>7.49211825643911</v>
+        <v>4.854357323646101</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.03863229119492</v>
+        <v>9.456381684791273</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.47745526605713</v>
+        <v>11.84204658963666</v>
       </c>
       <c r="O25">
-        <v>22.8304747346705</v>
+        <v>15.55532175895048</v>
       </c>
     </row>
   </sheetData>
